--- a/Source Data/Approved Cases Data - Eveningstar.xlsx
+++ b/Source Data/Approved Cases Data - Eveningstar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivk\Desktop\New folder\BT\Morningstar Reporting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D DRIVE\JK_SOFT_PROJECTS\morning_star\Source Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F482A7A5-5462-4270-9FB7-9F2AA0F279F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A09B63-80D8-4091-B964-B1126D36BC0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17563" windowHeight="6120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ApprovedProcessData-Morn" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="254">
   <si>
     <t>Case No</t>
   </si>
@@ -794,6 +794,9 @@
   </si>
   <si>
     <t>LN 170, FN 170</t>
+  </si>
+  <si>
+    <t>Management Info Manager Name</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1280,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1290,6 +1293,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1646,57 +1652,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP44"/>
+  <dimension ref="A1:AQ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.41015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.9375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.76171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.17578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="35.76171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.87890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.52734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.52734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.52734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.41015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.87890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.8203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.17578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.5859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="35.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.3515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.76171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.46875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.17578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.87890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.3515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.05859375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.52734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="35.76171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.17578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.29296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.05859375" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.3515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.87890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.3515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.3515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.17578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.17578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="25.41015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="35.76171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="8.9375" style="2"/>
+    <col min="20" max="20" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="25.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="35.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1823,8 +1831,11 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="AQ1" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2061</v>
       </c>
@@ -1913,8 +1924,11 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
       <c r="AP2" s="3"/>
+      <c r="AQ2" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2896</v>
       </c>
@@ -2005,8 +2019,11 @@
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
+      <c r="AQ3" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2280</v>
       </c>
@@ -2101,8 +2118,11 @@
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
       <c r="AP4" s="3"/>
+      <c r="AQ4" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>61</v>
       </c>
@@ -2201,8 +2221,11 @@
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
+      <c r="AQ5" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2051</v>
       </c>
@@ -2301,8 +2324,11 @@
       <c r="AP6" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="AQ6" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
@@ -2393,8 +2419,11 @@
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
+      <c r="AQ7" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2875</v>
       </c>
@@ -2485,8 +2514,11 @@
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
       <c r="AP8" s="3"/>
+      <c r="AQ8" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -2583,8 +2615,11 @@
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
       <c r="AP9" s="3"/>
+      <c r="AQ9" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>82</v>
       </c>
@@ -2697,8 +2732,11 @@
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
+      <c r="AQ10" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2874</v>
       </c>
@@ -2789,8 +2827,11 @@
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
       <c r="AP11" s="3"/>
+      <c r="AQ11" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>88</v>
       </c>
@@ -2889,8 +2930,11 @@
       <c r="AP12" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="AQ12" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>94</v>
       </c>
@@ -2995,8 +3039,11 @@
       <c r="AP13" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="AQ13" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>94</v>
       </c>
@@ -3091,8 +3138,11 @@
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
       <c r="AP14" s="3"/>
+      <c r="AQ14" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>94</v>
       </c>
@@ -3185,8 +3235,11 @@
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
       <c r="AP15" s="3"/>
+      <c r="AQ15" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>102</v>
       </c>
@@ -3277,8 +3330,11 @@
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="3"/>
+      <c r="AQ16" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>107</v>
       </c>
@@ -3371,8 +3427,11 @@
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
+      <c r="AQ17" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="18" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>110</v>
       </c>
@@ -3457,8 +3516,11 @@
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
+      <c r="AQ18" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2030</v>
       </c>
@@ -3555,8 +3617,11 @@
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
+      <c r="AQ19" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="20" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2844</v>
       </c>
@@ -3641,8 +3706,11 @@
       <c r="AP20" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="AQ20" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2196</v>
       </c>
@@ -3729,8 +3797,11 @@
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="3"/>
+      <c r="AQ21" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>123</v>
       </c>
@@ -3827,8 +3898,11 @@
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
+      <c r="AQ22" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>127</v>
       </c>
@@ -3927,8 +4001,11 @@
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
+      <c r="AQ23" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2669</v>
       </c>
@@ -4019,8 +4096,11 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
+      <c r="AQ24" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2306</v>
       </c>
@@ -4115,8 +4195,11 @@
       <c r="AP25" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="AQ25" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>135</v>
       </c>
@@ -4215,8 +4298,11 @@
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
       <c r="AP26" s="3"/>
+      <c r="AQ26" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2263</v>
       </c>
@@ -4309,8 +4395,11 @@
         <v>121</v>
       </c>
       <c r="AP27" s="3"/>
+      <c r="AQ27" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>140</v>
       </c>
@@ -4407,8 +4496,11 @@
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
+      <c r="AQ28" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>2873</v>
       </c>
@@ -4499,8 +4591,11 @@
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
+      <c r="AQ29" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>3029</v>
       </c>
@@ -4581,8 +4676,11 @@
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
+      <c r="AQ30" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>145</v>
       </c>
@@ -4671,8 +4769,11 @@
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
+      <c r="AQ31" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>3237712590</v>
       </c>
@@ -4763,8 +4864,11 @@
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
+      <c r="AQ32" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>2877</v>
       </c>
@@ -4855,8 +4959,11 @@
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
+      <c r="AQ33" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>150</v>
       </c>
@@ -4947,8 +5054,11 @@
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
+      <c r="AQ34" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>2383</v>
       </c>
@@ -5043,8 +5153,11 @@
       <c r="AP35" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="AQ35" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>2876</v>
       </c>
@@ -5135,8 +5248,11 @@
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
       <c r="AP36" s="3"/>
+      <c r="AQ36" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="37" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>2165</v>
       </c>
@@ -5231,8 +5347,11 @@
       <c r="AP37" s="3" t="s">
         <v>160</v>
       </c>
+      <c r="AQ37" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>2878</v>
       </c>
@@ -5317,8 +5436,11 @@
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
+      <c r="AQ38" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>3030</v>
       </c>
@@ -5397,8 +5519,11 @@
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
       <c r="AP39" s="3"/>
+      <c r="AQ39" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>165</v>
       </c>
@@ -5503,8 +5628,11 @@
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="3"/>
+      <c r="AQ40" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>165</v>
       </c>
@@ -5601,8 +5729,11 @@
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
       <c r="AP41" s="3"/>
+      <c r="AQ41" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>168</v>
       </c>
@@ -5693,8 +5824,11 @@
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
       <c r="AP42" s="3"/>
+      <c r="AQ42" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>2895</v>
       </c>
@@ -5785,8 +5919,11 @@
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
       <c r="AP43" s="3"/>
+      <c r="AQ43" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="44" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>171</v>
       </c>
@@ -5884,6 +6021,14 @@
       </c>
       <c r="AP44" s="3" t="s">
         <v>176</v>
+      </c>
+      <c r="AQ44" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" ht="59.15" x14ac:dyDescent="0.3">
+      <c r="AQ45" s="5" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
